--- a/docs/user study/results/UX 1_Affinity Notes.xlsx
+++ b/docs/user study/results/UX 1_Affinity Notes.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Varma\Documents\GitHub\MSAT-UI\docs\user study\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52E56E7D-15AE-4344-862D-1D4517AB2E9F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C5A7D72-1179-4BB2-9B16-6D56A8101BBB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="3" xr2:uid="{9B027435-55FA-4B4B-A6E7-EE42D17C7948}"/>
+    <workbookView xWindow="3180" yWindow="3090" windowWidth="8715" windowHeight="6090" firstSheet="3" activeTab="4" xr2:uid="{9B027435-55FA-4B4B-A6E7-EE42D17C7948}"/>
   </bookViews>
   <sheets>
     <sheet name="Research Question 1" sheetId="1" r:id="rId1"/>
     <sheet name="Research Question 2" sheetId="2" r:id="rId2"/>
     <sheet name="Research Question 3" sheetId="3" r:id="rId3"/>
-    <sheet name="General" sheetId="4" r:id="rId4"/>
+    <sheet name="Post" sheetId="5" r:id="rId4"/>
+    <sheet name="General" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="70">
   <si>
     <t xml:space="preserve">User ID </t>
   </si>
@@ -243,6 +244,9 @@
   </si>
   <si>
     <t>"this is good idea for tracing"</t>
+  </si>
+  <si>
+    <t>Summary Screen</t>
   </si>
 </sst>
 </file>
@@ -606,10 +610,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CACCBFB9-03EC-4421-9C7A-54E672DD7ADA}">
-  <dimension ref="A2:C30"/>
+  <dimension ref="A2:C40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A21" sqref="A21:C23"/>
+    <sheetView topLeftCell="E16" workbookViewId="0">
+      <selection activeCell="B40" sqref="A40:XFD40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -843,8 +847,80 @@
         <v>50</v>
       </c>
     </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>13</v>
+      </c>
+      <c r="B36" s="2">
+        <v>1.238425925925926E-2</v>
+      </c>
+      <c r="C36" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>13</v>
+      </c>
+      <c r="B37" s="2">
+        <v>1.2268518518518519E-2</v>
+      </c>
+      <c r="C37" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>7</v>
+      </c>
+      <c r="B38" s="2">
+        <v>2.1041666666666667E-2</v>
+      </c>
+      <c r="C38" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>21</v>
+      </c>
+      <c r="B39" s="2">
+        <v>1.4236111111111111E-2</v>
+      </c>
+      <c r="C39" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>21</v>
+      </c>
+      <c r="B40" s="2">
+        <v>1.8148148148148146E-2</v>
+      </c>
+      <c r="C40" t="s">
+        <v>22</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -852,7 +928,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF8493E3-0B5E-41E5-9BD5-DAB3E35FA19D}">
   <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
@@ -973,7 +1049,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30A4E722-582F-4212-BFE2-81BDEBAB6768}">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
@@ -1104,11 +1180,62 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E47DBD2-4E0C-4484-BCC7-F021986BC2FF}">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="74.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="2">
+        <v>3.7453703703703704E-2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2">
+        <v>7.0601851851851841E-3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3E5ADD7-B00B-4877-BC6D-34D4B2FE80B6}">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1156,10 +1283,10 @@
         <v>7</v>
       </c>
       <c r="B4" s="2">
-        <v>2.1041666666666667E-2</v>
+        <v>4.0196759259259258E-2</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -1167,32 +1294,32 @@
         <v>7</v>
       </c>
       <c r="B5" s="2">
-        <v>4.0196759259259258E-2</v>
+        <v>2.6388888888888889E-2</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B6" s="2">
-        <v>2.6388888888888889E-2</v>
+        <v>3.6111111111111115E-2</v>
       </c>
       <c r="C6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B7" s="2">
-        <v>3.6111111111111115E-2</v>
+        <v>3.1886574074074074E-2</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -1200,43 +1327,43 @@
         <v>3</v>
       </c>
       <c r="B8" s="2">
-        <v>3.1886574074074074E-2</v>
+        <v>2.2858796296296294E-2</v>
       </c>
       <c r="C8" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B9" s="2">
-        <v>1.238425925925926E-2</v>
+        <v>6.5162037037037037E-3</v>
       </c>
       <c r="C9" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="B10" s="2">
-        <v>1.2268518518518519E-2</v>
+        <v>1.2615740740740742E-2</v>
       </c>
       <c r="C10" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B11" s="2">
-        <v>2.2858796296296294E-2</v>
+        <v>9.780092592592592E-3</v>
       </c>
       <c r="C11" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -1244,43 +1371,43 @@
         <v>7</v>
       </c>
       <c r="B12" s="2">
-        <v>6.5162037037037037E-3</v>
+        <v>6.3657407407407404E-3</v>
       </c>
       <c r="C12" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="B13" s="2">
-        <v>1.2615740740740742E-2</v>
+        <v>1.9444444444444445E-2</v>
       </c>
       <c r="C13" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="B14" s="2">
-        <v>9.780092592592592E-3</v>
+        <v>7.8125E-3</v>
       </c>
       <c r="C14" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="B15" s="2">
-        <v>6.3657407407407404E-3</v>
+        <v>3.8194444444444443E-3</v>
       </c>
       <c r="C15" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -1288,98 +1415,21 @@
         <v>21</v>
       </c>
       <c r="B16" s="2">
-        <v>1.8148148148148146E-2</v>
+        <v>1.9097222222222222E-3</v>
       </c>
       <c r="C16" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B17" s="2">
-        <v>1.4236111111111111E-2</v>
+        <v>4.071759259259259E-2</v>
       </c>
       <c r="C17" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18" s="2">
-        <v>1.9444444444444445E-2</v>
-      </c>
-      <c r="C18" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>21</v>
-      </c>
-      <c r="B19" s="2">
-        <v>7.8125E-3</v>
-      </c>
-      <c r="C19" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>21</v>
-      </c>
-      <c r="B20" s="2">
-        <v>3.8194444444444443E-3</v>
-      </c>
-      <c r="C20" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21" s="2">
-        <v>3.7453703703703704E-2</v>
-      </c>
-      <c r="C21" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22" s="2">
-        <v>1.9097222222222222E-3</v>
-      </c>
-      <c r="C22" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>13</v>
-      </c>
-      <c r="B23" s="2">
-        <v>4.071759259259259E-2</v>
-      </c>
-      <c r="C23" t="s">
         <v>29</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>3</v>
-      </c>
-      <c r="B24" s="2">
-        <v>7.0601851851851841E-3</v>
-      </c>
-      <c r="C24" t="s">
-        <v>30</v>
       </c>
     </row>
   </sheetData>
